--- a/input/option_list.xlsx
+++ b/input/option_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\automation\oem-service-compare-data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9D527F-779D-4655-BE97-CA8B8D7D4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AA875-B964-4B82-81A0-5CCE6E04185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>VIN</t>
   </si>
@@ -36,7 +36,58 @@
     <t>3KPC24A32KE059844</t>
   </si>
   <si>
-    <t>JTDS4RCE1LJ041809</t>
+    <t>1N4BL3AP5DC125177</t>
+  </si>
+  <si>
+    <t>19UUB2F65KA005695</t>
+  </si>
+  <si>
+    <t>19XFL1H76NE020910</t>
+  </si>
+  <si>
+    <t>19XFL1H89NE400638</t>
+  </si>
+  <si>
+    <t>1C4GJXAN8MW823941</t>
+  </si>
+  <si>
+    <t>1C4HJXDGXLW298333</t>
+  </si>
+  <si>
+    <t>1C4HJXFG5KW677512</t>
+  </si>
+  <si>
+    <t>1C4HJXFG6KW595238</t>
+  </si>
+  <si>
+    <t>1C4HJXFG8LW188152</t>
+  </si>
+  <si>
+    <t>1C4RJEAG5JC429406</t>
+  </si>
+  <si>
+    <t>1C4SDHCT3LC410943</t>
+  </si>
+  <si>
+    <t>1C4SDJCT6MC799392</t>
+  </si>
+  <si>
+    <t>1C4SJVBT4NS123709</t>
+  </si>
+  <si>
+    <t>1C6RR6KM*KS******</t>
+  </si>
+  <si>
+    <t>1C6RR6TT9KS661210</t>
+  </si>
+  <si>
+    <t>1C6RR7LG4MS532481</t>
+  </si>
+  <si>
+    <t>1C6RR7TM*KS******</t>
+  </si>
+  <si>
+    <t>1C6SRFFT0KN737733</t>
   </si>
 </sst>
 </file>
@@ -362,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,6 +445,91 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/option_list.xlsx
+++ b/input/option_list.xlsx
@@ -1,73 +1,694 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\automation\oem-service-compare-data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9D527F-779D-4655-BE97-CA8B8D7D4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>VIN</t>
   </si>
   <si>
+    <t>1N4BL3AP5DC125177</t>
+  </si>
+  <si>
     <t>5N1BT3CB2PC762443</t>
   </si>
   <si>
     <t>3KPC24A32KE059844</t>
   </si>
   <si>
-    <t>JTDS4RCE1LJ041809</t>
+    <t>19UUB2F65KA005695</t>
+  </si>
+  <si>
+    <t>WBAYE0C50FD221102</t>
+  </si>
+  <si>
+    <t>WBAYE8C52FD866498</t>
+  </si>
+  <si>
+    <t>WBAYF4C5*FC******</t>
+  </si>
+  <si>
+    <t>WBS83CH07NCH72531</t>
+  </si>
+  <si>
+    <t>WBSDX9C58BE461518</t>
+  </si>
+  <si>
+    <t>WBSPM93579E201109</t>
+  </si>
+  <si>
+    <t>WBXPC93417W529590</t>
+  </si>
+  <si>
+    <t>WD0PE745295375510</t>
+  </si>
+  <si>
+    <t>WD3PE7CC5C5635540</t>
+  </si>
+  <si>
+    <t>WDBJF65J*2B******</t>
+  </si>
+  <si>
+    <t>WDBNG70J*2A******</t>
+  </si>
+  <si>
+    <t>WDBNG75J*2A******</t>
+  </si>
+  <si>
+    <t>WDBRF64J*1E******</t>
+  </si>
+  <si>
+    <t>WDBUF56X57B072827</t>
+  </si>
+  <si>
+    <t>WDBUF56X87B107778</t>
+  </si>
+  <si>
+    <t>WDBUF65J84A565891</t>
+  </si>
+  <si>
+    <t>WDBVF7KB7AA002740</t>
+  </si>
+  <si>
+    <t>WDCYC3HFXFX624919</t>
+  </si>
+  <si>
+    <t>WDCYR49E*2X******</t>
+  </si>
+  <si>
+    <t>WDDEJ71X*7A******</t>
+  </si>
+  <si>
+    <t>WDDFH3DB4AJ503676</t>
+  </si>
+  <si>
+    <t>WDDGF4HB5DG055654</t>
+  </si>
+  <si>
+    <t>WDDGF54X08F003254</t>
+  </si>
+  <si>
+    <t>WDDGF54X49R061173</t>
+  </si>
+  <si>
+    <t>WDDHF5GB5AA343491</t>
+  </si>
+  <si>
+    <t>WDDHF5KB9EB024490</t>
+  </si>
+  <si>
+    <t>WDDHH7GBXGB232623</t>
+  </si>
+  <si>
+    <t>WDDSJ4GB*JN******</t>
+  </si>
+  <si>
+    <t>WDDUG6DB9HA298488</t>
+  </si>
+  <si>
+    <t>WF0CP6A9*J1******</t>
+  </si>
+  <si>
+    <t>WF0CP6B9*J1******</t>
+  </si>
+  <si>
+    <t>WMEAJ00F56J298684</t>
+  </si>
+  <si>
+    <t>WMEEJ3BA3EK742334</t>
+  </si>
+  <si>
+    <t>WMEFJ5DA3HK169454</t>
+  </si>
+  <si>
+    <t>WMWRC33484TJ54603</t>
+  </si>
+  <si>
+    <t>WMWSU3C56CT261722</t>
+  </si>
+  <si>
+    <t>WMWSY3C50CT000008</t>
+  </si>
+  <si>
+    <t>WMWXU3C53F2B59474</t>
+  </si>
+  <si>
+    <t>WP1AA2A29JKA06199</t>
+  </si>
+  <si>
+    <t>WP1AA2A52JLB11820</t>
+  </si>
+  <si>
+    <t>WUABWGFF6KA905435</t>
+  </si>
+  <si>
+    <t>WV2EB47003H000892</t>
+  </si>
+  <si>
+    <t>WVGAV7AX1GW577682</t>
+  </si>
+  <si>
+    <t>WVGBC67L64D028382</t>
+  </si>
+  <si>
+    <t>WVGEF9BP0GD002879</t>
+  </si>
+  <si>
+    <t>WVGEG9BP1DD814426</t>
+  </si>
+  <si>
+    <t>WVGFG9BP0BD001967</t>
+  </si>
+  <si>
+    <t>WVGGF7BP3HD006214</t>
+  </si>
+  <si>
+    <t>WVWAA71K09W021225</t>
+  </si>
+  <si>
+    <t>WVWAR7AN2PE002553</t>
+  </si>
+  <si>
+    <t>WVWBR7AN3LE017352</t>
+  </si>
+  <si>
+    <t>WVWBU73C46P144064</t>
+  </si>
+  <si>
+    <t>WVWDM7AJ0EW005421</t>
+  </si>
+  <si>
+    <t>WVWED7AJ4BW252649</t>
+  </si>
+  <si>
+    <t>WVWKP7ANXHE502536</t>
+  </si>
+  <si>
+    <t>WVWKP7AU4GW915567</t>
+  </si>
+  <si>
+    <t>WVWKR7AU4KW909299</t>
+  </si>
+  <si>
+    <t>WVWSR7AN6ME007819</t>
+  </si>
+  <si>
+    <t>WVWTR7AN7PE018093</t>
+  </si>
+  <si>
+    <t>YV1102EM7L2396331</t>
+  </si>
+  <si>
+    <t>YV126MFL6J2450882</t>
+  </si>
+  <si>
+    <t>YV140MTL9J2459994</t>
+  </si>
+  <si>
+    <t>YV1672MK4A2175705</t>
+  </si>
+  <si>
+    <t>YV1CZ852751198440</t>
+  </si>
+  <si>
+    <t>YV1LW56D8X2626195</t>
+  </si>
+  <si>
+    <t>YV1SJ527862600107</t>
+  </si>
+  <si>
+    <t>YV1VS29593F938388</t>
+  </si>
+  <si>
+    <t>YV4102RL1L1565060</t>
+  </si>
+  <si>
+    <t>YV4612HK7G1009613</t>
+  </si>
+  <si>
+    <t>YV4852CT6B1415968</t>
+  </si>
+  <si>
+    <t>YV4952CF7D1385249</t>
+  </si>
+  <si>
+    <t>YV4952CZ3D1661498</t>
+  </si>
+  <si>
+    <t>YV4BC0PL3H1112553</t>
+  </si>
+  <si>
+    <t>YV4BR0CL8L1581974</t>
+  </si>
+  <si>
+    <t>YV4H600A8P1977267</t>
+  </si>
+  <si>
+    <t>YV4L12RW7P1193097</t>
+  </si>
+  <si>
+    <t>ZACCJBCT1GPD54612</t>
+  </si>
+  <si>
+    <t>ZACNJBC11KPK60274</t>
+  </si>
+  <si>
+    <t>ZARAAMEV*PM******</t>
+  </si>
+  <si>
+    <t>ZARAANAN*P7******</t>
+  </si>
+  <si>
+    <t>ZARAANAN*R7******</t>
+  </si>
+  <si>
+    <t>ZARBAMEV*PM******</t>
+  </si>
+  <si>
+    <t>ZARCAMEV*P7******</t>
+  </si>
+  <si>
+    <t>ZARCAMEV*PM******</t>
+  </si>
+  <si>
+    <t>ZARDAMEV*P7******</t>
+  </si>
+  <si>
+    <t>ZARDAMEV*PM******</t>
+  </si>
+  <si>
+    <t>ZAREAMAN*R7******</t>
+  </si>
+  <si>
+    <t>ZARFAEAV0K7623456</t>
+  </si>
+  <si>
+    <t>ZARFAECN8J7571133</t>
+  </si>
+  <si>
+    <t>ZARFAECN9H7538829</t>
+  </si>
+  <si>
+    <t>ZARFAMEV*M7******</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,25 +696,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -142,7 +1051,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -177,7 +1086,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,50 +1260,506 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/input/option_list.xlsx
+++ b/input/option_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\automation\oem-service-compare-data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AA875-B964-4B82-81A0-5CCE6E04185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA755D35-3F9A-4470-8D58-3C6E17405993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28908" yWindow="-60" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,76 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>VIN</t>
   </si>
   <si>
-    <t>5N1BT3CB2PC762443</t>
-  </si>
-  <si>
-    <t>3KPC24A32KE059844</t>
-  </si>
-  <si>
-    <t>1N4BL3AP5DC125177</t>
-  </si>
-  <si>
-    <t>19UUB2F65KA005695</t>
-  </si>
-  <si>
-    <t>19XFL1H76NE020910</t>
-  </si>
-  <si>
-    <t>19XFL1H89NE400638</t>
-  </si>
-  <si>
-    <t>1C4GJXAN8MW823941</t>
-  </si>
-  <si>
-    <t>1C4HJXDGXLW298333</t>
-  </si>
-  <si>
-    <t>1C4HJXFG5KW677512</t>
-  </si>
-  <si>
-    <t>1C4HJXFG6KW595238</t>
-  </si>
-  <si>
-    <t>1C4HJXFG8LW188152</t>
-  </si>
-  <si>
-    <t>1C4RJEAG5JC429406</t>
-  </si>
-  <si>
-    <t>1C4SDHCT3LC410943</t>
-  </si>
-  <si>
-    <t>1C4SDJCT6MC799392</t>
-  </si>
-  <si>
-    <t>1C4SJVBT4NS123709</t>
-  </si>
-  <si>
-    <t>1C6RR6KM*KS******</t>
-  </si>
-  <si>
-    <t>1C6RR6TT9KS661210</t>
-  </si>
-  <si>
-    <t>1C6RR7LG4MS532481</t>
-  </si>
-  <si>
-    <t>1C6RR7TM*KS******</t>
-  </si>
-  <si>
-    <t>1C6SRFFT0KN737733</t>
+    <t>4T4BF1FK1FR513668</t>
+  </si>
+  <si>
+    <t>4T4B11HK*JU******</t>
+  </si>
+  <si>
+    <t>4T4B11HK*KR******</t>
+  </si>
+  <si>
+    <t>4T4B11HK*KU******</t>
+  </si>
+  <si>
+    <t>4T4B21HK*JR******</t>
+  </si>
+  <si>
+    <t>4T4B11HK*JR******</t>
+  </si>
+  <si>
+    <t>5TBBV58198S523491</t>
+  </si>
+  <si>
+    <t>1GKDS13S342145725</t>
+  </si>
+  <si>
+    <t>5XYP34HC4LG056968</t>
+  </si>
+  <si>
+    <t>JTMABABA*PA003621</t>
+  </si>
+  <si>
+    <t>4T1BE32K*64******</t>
+  </si>
+  <si>
+    <t>JTMS1RFV*MJ******</t>
+  </si>
+  <si>
+    <t>JT2SK12E*P2******</t>
+  </si>
+  <si>
+    <t>3TMCZ5AN*PM******</t>
+  </si>
+  <si>
+    <t>7SVAAABA*SX******</t>
+  </si>
+  <si>
+    <t>JT2AE00B*S0******</t>
+  </si>
+  <si>
+    <t>JTDKN3DU*G0******</t>
+  </si>
+  <si>
+    <t>1FDYS86E*VV******</t>
+  </si>
+  <si>
+    <t>NM0GE9E7*G1******</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +102,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,9 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,118 +422,119 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
